--- a/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>ANDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,43 +747,49 @@
         <v>400</v>
       </c>
       <c r="E8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>400</v>
       </c>
       <c r="G8" s="3">
+        <v>600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6300</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,7 +797,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -796,31 +809,37 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -834,37 +853,43 @@
         <v>300</v>
       </c>
       <c r="G10" s="3">
+        <v>400</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6200</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,13 +906,15 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -896,19 +923,19 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
@@ -925,8 +952,14 @@
       <c r="P12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,19 +1123,21 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
       </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
@@ -1093,75 +1146,87 @@
         <v>600</v>
       </c>
       <c r="I17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1187,23 +1254,23 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1243,31 +1316,37 @@
         <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>5300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1310,8 +1389,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1325,37 +1410,43 @@
         <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>5300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1457,37 +1560,43 @@
         <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>5300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1501,37 +1610,43 @@
         <v>-200</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1600,11 +1721,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -1612,14 +1733,20 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,22 +1854,22 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1750,8 +1889,14 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1765,37 +1910,43 @@
         <v>-200</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1853,86 +2010,98 @@
         <v>-200</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,43 +2149,49 @@
         <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G41" s="3">
         <v>500</v>
       </c>
       <c r="H41" s="3">
+        <v>500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>500</v>
+      </c>
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,19 +2234,25 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
@@ -2076,42 +2261,48 @@
         <v>300</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
@@ -2120,42 +2311,48 @@
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
-        <v>100</v>
-      </c>
-      <c r="N44" s="3">
-        <v>100</v>
-      </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2164,19 +2361,19 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2187,52 +2384,64 @@
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2296,13 +2511,13 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2331,10 +2552,10 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>300</v>
+      </c>
+      <c r="R49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,16 +2784,22 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E54" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F54" s="3">
         <v>1400</v>
@@ -2557,34 +2808,40 @@
         <v>1500</v>
       </c>
       <c r="H54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2634,7 +2895,7 @@
         <v>400</v>
       </c>
       <c r="G57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
@@ -2643,28 +2904,34 @@
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2689,26 +2956,32 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>24</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2722,16 +2995,16 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -2746,13 +3019,19 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2781,66 +3060,78 @@
         <v>400</v>
       </c>
       <c r="L60" s="3">
+        <v>400</v>
+      </c>
+      <c r="M60" s="3">
+        <v>400</v>
+      </c>
+      <c r="N60" s="3">
         <v>7600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E61" s="3">
         <v>1800</v>
       </c>
       <c r="F61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
-        <v>100</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>6000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2853,11 +3144,11 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>24</v>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>24</v>
@@ -2865,11 +3156,11 @@
       <c r="J62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-79700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-79600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-79500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-79400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-79200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-79000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-78800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-78600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-78200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-77900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-83200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-79200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-77100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3581,37 +3970,43 @@
         <v>-200</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,43 +4334,49 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4393,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>24</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>24</v>
@@ -3968,38 +4409,44 @@
       <c r="F91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>24</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4122,16 +4581,22 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>100</v>
+      </c>
+      <c r="R94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,25 +4809,31 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -4351,25 +4842,31 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>-4900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>4600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>ANDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>500</v>
       </c>
       <c r="J8" s="3">
         <v>500</v>
       </c>
       <c r="K8" s="3">
+        <v>500</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6300</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
@@ -786,15 +790,18 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -803,22 +810,22 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -827,7 +834,7 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -836,10 +843,13 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,38 +857,38 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>400</v>
-      </c>
-      <c r="K10" s="3">
-        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
       </c>
       <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6200</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
@@ -886,10 +896,13 @@
         <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,17 +921,18 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
@@ -929,16 +943,16 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,22 +1151,23 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
       </c>
       <c r="F17" s="3">
+        <v>600</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
@@ -1152,31 +1179,34 @@
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1184,25 +1214,25 @@
         <v>-200</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
@@ -1211,22 +1241,25 @@
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>5300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,13 +1278,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1260,20 +1294,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-200</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
       </c>
       <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>5300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1404,16 +1447,16 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
@@ -1422,7 +1465,7 @@
         <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
@@ -1431,22 +1474,25 @@
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1554,16 +1606,16 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
@@ -1572,7 +1624,7 @@
         <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
@@ -1581,22 +1633,25 @@
         <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1604,16 +1659,16 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
@@ -1622,7 +1677,7 @@
         <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
@@ -1631,22 +1686,25 @@
         <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1727,8 +1788,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1739,14 +1800,17 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,13 +1912,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1860,19 +1930,19 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,16 +1977,16 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
@@ -1922,7 +1995,7 @@
         <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
@@ -1931,22 +2004,25 @@
         <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,16 +2083,16 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
@@ -2022,7 +2101,7 @@
         <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
@@ -2031,77 +2110,83 @@
         <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,13 +2236,13 @@
         <v>400</v>
       </c>
       <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
@@ -2164,34 +2251,37 @@
         <v>500</v>
       </c>
       <c r="J41" s="3">
+        <v>500</v>
+      </c>
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>3000</v>
       </c>
       <c r="R41" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,16 +2330,19 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>400</v>
@@ -2258,40 +2351,43 @@
         <v>400</v>
       </c>
       <c r="H43" s="3">
+        <v>400</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2302,10 +2398,10 @@
         <v>200</v>
       </c>
       <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -2317,7 +2413,7 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -2326,11 +2422,11 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
-        <v>100</v>
-      </c>
       <c r="P44" s="3">
         <v>100</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2349,13 +2448,13 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2367,16 +2466,16 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2390,58 +2489,64 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1100</v>
       </c>
       <c r="G46" s="3">
         <v>1100</v>
       </c>
       <c r="H46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I46" s="3">
         <v>1000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1200</v>
       </c>
       <c r="J46" s="3">
         <v>1200</v>
       </c>
       <c r="K46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2517,10 +2625,10 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2558,7 +2669,7 @@
         <v>200</v>
       </c>
       <c r="H49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I49" s="3">
         <v>300</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1600</v>
       </c>
       <c r="K54" s="3">
         <v>1600</v>
       </c>
       <c r="L54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,25 +3010,26 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
@@ -2910,51 +3041,54 @@
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2962,31 +3096,34 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6000</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3001,13 +3138,13 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -3025,13 +3162,16 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3066,30 +3206,33 @@
         <v>400</v>
       </c>
       <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
         <v>7600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1900</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1800</v>
       </c>
       <c r="F61" s="3">
         <v>1800</v>
@@ -3098,40 +3241,43 @@
         <v>1800</v>
       </c>
       <c r="H61" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="I61" s="3">
         <v>1600</v>
       </c>
       <c r="J61" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K61" s="3">
         <v>1400</v>
       </c>
       <c r="L61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M61" s="3">
         <v>1300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="N61" s="3">
-        <v>100</v>
-      </c>
       <c r="O61" s="3">
+        <v>100</v>
+      </c>
+      <c r="P61" s="3">
         <v>6000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>1400</v>
       </c>
       <c r="Q61" s="3">
         <v>1400</v>
       </c>
       <c r="R61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3150,8 +3296,8 @@
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>24</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>24</v>
@@ -3162,8 +3308,8 @@
       <c r="L62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3339,49 +3497,52 @@
         <v>2400</v>
       </c>
       <c r="E66" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F66" s="3">
         <v>2300</v>
       </c>
       <c r="G66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H66" s="3">
         <v>2200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2000</v>
       </c>
       <c r="I66" s="3">
         <v>2000</v>
       </c>
       <c r="J66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-79900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-79700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-79600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-79500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-79400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-79200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-79000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-78800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-78600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-78200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-77900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-83200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-79200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-77100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,16 +4159,16 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
@@ -3982,7 +4177,7 @@
         <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
@@ -3991,22 +4186,25 @@
         <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4334,49 +4551,52 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>24</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>24</v>
@@ -4415,11 +4636,11 @@
       <c r="H91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
+      <c r="I91" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>24</v>
@@ -4427,26 +4648,29 @@
       <c r="L91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>24</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4587,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>100</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,28 +5058,31 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -4848,25 +5094,28 @@
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>-4900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>4600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4927,42 +5179,45 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-200</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
       </c>
       <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,131 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>500</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
       </c>
       <c r="L8" s="3">
+        <v>500</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6300</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
@@ -793,18 +797,21 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -813,22 +820,22 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
       <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -837,7 +844,7 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -846,10 +853,13 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -860,38 +870,38 @@
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
       </c>
       <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6200</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
@@ -899,10 +909,13 @@
         <v>100</v>
       </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -931,11 +945,11 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
@@ -946,16 +960,16 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>200</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,16 +1188,16 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>600</v>
       </c>
       <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
@@ -1182,60 +1209,63 @@
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
@@ -1244,22 +1274,25 @@
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>5300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,17 +1312,18 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1297,20 +1331,20 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
       <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
       <c r="L21" s="3">
         <v>-200</v>
       </c>
       <c r="M21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>5300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1450,17 +1493,17 @@
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
@@ -1468,7 +1511,7 @@
         <v>-200</v>
       </c>
       <c r="L23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
@@ -1477,22 +1520,25 @@
         <v>-300</v>
       </c>
       <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
         <v>5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1609,17 +1661,17 @@
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
@@ -1627,7 +1679,7 @@
         <v>-200</v>
       </c>
       <c r="L26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
@@ -1636,22 +1688,25 @@
         <v>-300</v>
       </c>
       <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
         <v>5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1662,17 +1717,17 @@
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
@@ -1680,7 +1735,7 @@
         <v>-200</v>
       </c>
       <c r="L27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
@@ -1689,22 +1744,25 @@
         <v>-300</v>
       </c>
       <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
         <v>5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1791,8 +1852,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1803,14 +1864,17 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,16 +1982,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1933,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1980,17 +2053,17 @@
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
@@ -1998,7 +2071,7 @@
         <v>-200</v>
       </c>
       <c r="L33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
@@ -2007,22 +2080,25 @@
         <v>-300</v>
       </c>
       <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
         <v>5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2086,17 +2165,17 @@
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
@@ -2104,7 +2183,7 @@
         <v>-200</v>
       </c>
       <c r="L35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
@@ -2113,80 +2192,86 @@
         <v>-300</v>
       </c>
       <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
         <v>5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2239,13 +2326,13 @@
         <v>400</v>
       </c>
       <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>500</v>
       </c>
       <c r="I41" s="3">
         <v>500</v>
@@ -2254,34 +2341,37 @@
         <v>500</v>
       </c>
       <c r="K41" s="3">
+        <v>500</v>
+      </c>
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2300</v>
-      </c>
-      <c r="R41" s="3">
-        <v>3000</v>
       </c>
       <c r="S41" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,19 +2423,22 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
@@ -2354,45 +2447,48 @@
         <v>400</v>
       </c>
       <c r="I43" s="3">
+        <v>400</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
@@ -2401,10 +2497,10 @@
         <v>200</v>
       </c>
       <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -2416,7 +2512,7 @@
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -2425,11 +2521,11 @@
         <v>100</v>
       </c>
       <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
-        <v>100</v>
-      </c>
       <c r="Q44" s="3">
         <v>100</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2451,13 +2550,13 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2469,16 +2568,16 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2492,61 +2591,67 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1100</v>
       </c>
       <c r="H46" s="3">
         <v>1100</v>
       </c>
       <c r="I46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J46" s="3">
         <v>1000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1200</v>
       </c>
       <c r="K46" s="3">
         <v>1200</v>
       </c>
       <c r="L46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2628,10 +2736,10 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2672,7 +2783,7 @@
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1600</v>
       </c>
       <c r="L54" s="3">
         <v>1600</v>
       </c>
       <c r="M54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N54" s="3">
         <v>1700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,19 +3151,19 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
@@ -3044,36 +3175,39 @@
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>24</v>
@@ -3090,8 +3224,8 @@
       <c r="J58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3099,26 +3233,29 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6000</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3126,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3141,13 +3278,13 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -3165,13 +3302,16 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3209,33 +3349,36 @@
         <v>400</v>
       </c>
       <c r="O60" s="3">
+        <v>400</v>
+      </c>
+      <c r="P60" s="3">
         <v>7600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1900</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1800</v>
       </c>
       <c r="G61" s="3">
         <v>1800</v>
@@ -3244,40 +3387,43 @@
         <v>1800</v>
       </c>
       <c r="I61" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="J61" s="3">
         <v>1600</v>
       </c>
       <c r="K61" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L61" s="3">
         <v>1400</v>
       </c>
       <c r="M61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N61" s="3">
         <v>1300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1200</v>
       </c>
-      <c r="O61" s="3">
-        <v>100</v>
-      </c>
       <c r="P61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="3">
         <v>6000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>1400</v>
       </c>
       <c r="R61" s="3">
         <v>1400</v>
       </c>
       <c r="S61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3299,8 +3445,8 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>24</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>24</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="E66" s="3">
         <v>2400</v>
       </c>
       <c r="F66" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G66" s="3">
         <v>2300</v>
       </c>
       <c r="H66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I66" s="3">
         <v>2200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2000</v>
       </c>
       <c r="J66" s="3">
         <v>2000</v>
       </c>
       <c r="K66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-80300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-80200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-79900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-79700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-79600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-79500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-79400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-79200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-79000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-78800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-78600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-78200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-77900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-83200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-79200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-77100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
-        <v>-200</v>
-      </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4162,17 +4357,17 @@
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
@@ -4180,7 +4375,7 @@
         <v>-200</v>
       </c>
       <c r="L81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
@@ -4189,22 +4384,25 @@
         <v>-300</v>
       </c>
       <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
         <v>5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,8 +4848,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>24</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>24</v>
@@ -4639,11 +4860,11 @@
       <c r="I91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
+      <c r="J91" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>24</v>
@@ -4651,26 +4872,29 @@
       <c r="M91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>24</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4820,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>100</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,31 +5304,34 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -5097,25 +5343,28 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-4900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>4600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5182,42 +5434,45 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>-200</v>
-      </c>
       <c r="L102" s="3">
         <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>ANDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,49 +768,55 @@
         <v>400</v>
       </c>
       <c r="G8" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
       </c>
       <c r="I8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
       </c>
       <c r="K8" s="3">
+        <v>600</v>
+      </c>
+      <c r="L8" s="3">
+        <v>400</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6300</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,19 +824,19 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -835,31 +848,37 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,13 +886,13 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
       </c>
       <c r="G10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
@@ -885,37 +904,43 @@
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>400</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,14 +975,14 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
@@ -963,19 +990,19 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>200</v>
       </c>
       <c r="O12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>200</v>
+      </c>
+      <c r="V12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,31 +1230,33 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
       </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
@@ -1212,87 +1265,99 @@
         <v>600</v>
       </c>
       <c r="M17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>5300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,44 +1378,46 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1369,22 +1436,28 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-200</v>
-      </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
@@ -1402,31 +1475,37 @@
         <v>-200</v>
       </c>
       <c r="M21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>5300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-4100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1481,13 +1560,19 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
@@ -1496,7 +1581,7 @@
         <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
@@ -1508,37 +1593,43 @@
         <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-4100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,13 +1746,19 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -1664,7 +1767,7 @@
         <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
@@ -1676,42 +1779,48 @@
         <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -1720,7 +1829,7 @@
         <v>-200</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
@@ -1732,37 +1841,43 @@
         <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
       <c r="M27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-4100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1855,11 +1976,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1867,14 +1988,20 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,43 +2118,49 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2041,13 +2180,19 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -2056,7 +2201,7 @@
         <v>-200</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
@@ -2068,37 +2213,43 @@
         <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
       <c r="M33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>5300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-4100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,13 +2304,19 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -2168,7 +2325,7 @@
         <v>-200</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
@@ -2180,98 +2337,110 @@
         <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
       <c r="M35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>5300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-4100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2485,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2329,49 +2502,55 @@
         <v>400</v>
       </c>
       <c r="G41" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H41" s="3">
         <v>400</v>
       </c>
       <c r="I41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
       </c>
       <c r="L41" s="3">
+        <v>500</v>
+      </c>
+      <c r="M41" s="3">
+        <v>500</v>
+      </c>
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,22 +2620,22 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
@@ -2459,54 +2644,60 @@
         <v>300</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
@@ -2515,36 +2706,42 @@
         <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
       <c r="P44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3">
-        <v>100</v>
-      </c>
-      <c r="R44" s="3">
-        <v>100</v>
-      </c>
       <c r="S44" s="3">
         <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>100</v>
+      </c>
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2553,16 +2750,16 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2571,19 +2768,19 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2594,8 +2791,14 @@
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,55 +2806,61 @@
         <v>900</v>
       </c>
       <c r="E46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F46" s="3">
         <v>900</v>
       </c>
       <c r="G46" s="3">
+        <v>700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>900</v>
+      </c>
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,16 +2915,22 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2739,13 +2954,13 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2786,10 +3007,10 @@
         <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>300</v>
+      </c>
+      <c r="V49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,28 +3287,34 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1200</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1000</v>
       </c>
       <c r="F54" s="3">
         <v>1200</v>
       </c>
       <c r="G54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I54" s="3">
         <v>1300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1500</v>
       </c>
       <c r="J54" s="3">
         <v>1400</v>
@@ -3072,34 +3323,40 @@
         <v>1500</v>
       </c>
       <c r="L54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,19 +3401,21 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -3169,7 +3430,7 @@
         <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
@@ -3178,28 +3439,34 @@
         <v>400</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>24</v>
@@ -3227,49 +3494,55 @@
       <c r="K58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>24</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="R58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S58" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -3281,16 +3554,16 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -3305,18 +3578,24 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
@@ -3352,86 +3631,98 @@
         <v>400</v>
       </c>
       <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
         <v>7600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F61" s="3">
         <v>2300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1900</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1800</v>
       </c>
       <c r="I61" s="3">
         <v>1800</v>
       </c>
       <c r="J61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1200</v>
       </c>
-      <c r="P61" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
         <v>6000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3448,11 +3739,11 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>24</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>24</v>
@@ -3460,11 +3751,11 @@
       <c r="N62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-80600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-80600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-80300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-80200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-79900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-79700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-79600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-79500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-79400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-79200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-79000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-78800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-78600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-78200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-77900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-83200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-79200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-77100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,74 +4661,86 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
@@ -4360,7 +4749,7 @@
         <v>-200</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
@@ -4372,37 +4761,43 @@
         <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
       <c r="M81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>5300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-4100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4771,52 +5204,58 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-2500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5276,15 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4851,11 +5292,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>24</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>24</v>
@@ -4863,38 +5304,44 @@
       <c r="J91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>24</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5053,16 +5512,22 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>100</v>
+      </c>
+      <c r="V94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,37 +5792,43 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -5346,25 +5837,31 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-4900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>4600</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5437,42 +5940,48 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-200</v>
-      </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-6300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>ANDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,50 +766,50 @@
         <v>400</v>
       </c>
       <c r="E8" s="3">
+        <v>400</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>500</v>
       </c>
       <c r="N8" s="3">
         <v>500</v>
       </c>
       <c r="O8" s="3">
+        <v>500</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6300</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
@@ -813,10 +817,13 @@
         <v>100</v>
       </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,10 +837,10 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -842,22 +849,22 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -866,7 +873,7 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -875,10 +882,13 @@
         <v>0</v>
       </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,10 +896,10 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
@@ -898,38 +908,38 @@
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6200</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
@@ -937,10 +947,13 @@
         <v>100</v>
       </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -981,11 +995,11 @@
         <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
@@ -996,16 +1010,16 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>200</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,16 +1258,17 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
@@ -1250,16 +1277,16 @@
         <v>500</v>
       </c>
       <c r="H17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
@@ -1271,69 +1298,72 @@
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
@@ -1342,22 +1372,25 @@
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>5300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,26 +1413,27 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1407,20 +1441,20 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1442,70 +1476,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
       <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
       <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
       <c r="O21" s="3">
         <v>-200</v>
       </c>
       <c r="P21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-300</v>
       </c>
       <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
         <v>5300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1566,16 +1606,19 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
@@ -1587,17 +1630,17 @@
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
@@ -1605,7 +1648,7 @@
         <v>-200</v>
       </c>
       <c r="O23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
@@ -1614,22 +1657,25 @@
         <v>-300</v>
       </c>
       <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,16 +1801,19 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
@@ -1773,17 +1825,17 @@
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
@@ -1791,7 +1843,7 @@
         <v>-200</v>
       </c>
       <c r="O26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
@@ -1800,30 +1852,33 @@
         <v>-300</v>
       </c>
       <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>5300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
@@ -1835,17 +1890,17 @@
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
@@ -1853,7 +1908,7 @@
         <v>-200</v>
       </c>
       <c r="O27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
@@ -1862,22 +1917,25 @@
         <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
         <v>5300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1982,8 +2043,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1994,14 +2055,17 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,25 +2191,28 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2151,19 +2221,19 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2186,16 +2256,19 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
@@ -2207,17 +2280,17 @@
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
@@ -2225,7 +2298,7 @@
         <v>-200</v>
       </c>
       <c r="O33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
@@ -2234,22 +2307,25 @@
         <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
         <v>5300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,16 +2386,19 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
@@ -2331,17 +2410,17 @@
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
@@ -2349,7 +2428,7 @@
         <v>-200</v>
       </c>
       <c r="O35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
@@ -2358,89 +2437,95 @@
         <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
         <v>5300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2508,13 +2595,13 @@
         <v>400</v>
       </c>
       <c r="I41" s="3">
+        <v>400</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
@@ -2523,34 +2610,37 @@
         <v>500</v>
       </c>
       <c r="N41" s="3">
+        <v>500</v>
+      </c>
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2300</v>
-      </c>
-      <c r="U41" s="3">
-        <v>3000</v>
       </c>
       <c r="V41" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,28 +2701,31 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>400</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
@@ -2641,54 +2734,57 @@
         <v>400</v>
       </c>
       <c r="L43" s="3">
+        <v>400</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
-        <v>100</v>
-      </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -2697,10 +2793,10 @@
         <v>200</v>
       </c>
       <c r="J44" s="3">
+        <v>200</v>
+      </c>
+      <c r="K44" s="3">
         <v>300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
@@ -2712,7 +2808,7 @@
         <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -2721,11 +2817,11 @@
         <v>100</v>
       </c>
       <c r="R44" s="3">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="S44" s="3">
-        <v>100</v>
-      </c>
       <c r="T44" s="3">
         <v>100</v>
       </c>
@@ -2735,16 +2831,19 @@
       <c r="V44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2756,13 +2855,13 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2774,16 +2873,16 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2806,61 +2908,64 @@
         <v>900</v>
       </c>
       <c r="E46" s="3">
+        <v>900</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1100</v>
       </c>
       <c r="K46" s="3">
         <v>1100</v>
       </c>
       <c r="L46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M46" s="3">
         <v>1000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1200</v>
       </c>
       <c r="N46" s="3">
         <v>1200</v>
       </c>
       <c r="O46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2933,7 +3041,7 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2960,10 +3068,10 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3013,7 +3124,7 @@
         <v>200</v>
       </c>
       <c r="L49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M49" s="3">
         <v>300</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1200</v>
       </c>
       <c r="F54" s="3">
         <v>1200</v>
       </c>
       <c r="G54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1600</v>
       </c>
       <c r="O54" s="3">
         <v>1600</v>
       </c>
       <c r="P54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,37 +3533,38 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
@@ -3445,28 +3576,31 @@
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3480,10 +3614,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>24</v>
@@ -3500,8 +3634,8 @@
       <c r="M58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3509,26 +3643,29 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6000</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3" t="s">
+      <c r="U58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3539,13 +3676,13 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3560,13 +3697,13 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -3584,21 +3721,24 @@
         <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
@@ -3637,22 +3777,25 @@
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
         <v>7600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,19 +3803,19 @@
         <v>2500</v>
       </c>
       <c r="E61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F61" s="3">
         <v>2400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1900</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1800</v>
       </c>
       <c r="J61" s="3">
         <v>1800</v>
@@ -3681,40 +3824,43 @@
         <v>1800</v>
       </c>
       <c r="L61" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M61" s="3">
         <v>1600</v>
       </c>
       <c r="N61" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="O61" s="3">
         <v>1400</v>
       </c>
       <c r="P61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1200</v>
       </c>
-      <c r="R61" s="3">
-        <v>100</v>
-      </c>
       <c r="S61" s="3">
+        <v>100</v>
+      </c>
+      <c r="T61" s="3">
         <v>6000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>1400</v>
       </c>
       <c r="U61" s="3">
         <v>1400</v>
       </c>
       <c r="V61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,11 +3868,11 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
@@ -3745,8 +3891,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>24</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>24</v>
@@ -3757,8 +3903,8 @@
       <c r="P62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3970,61 +4128,64 @@
         <v>3200</v>
       </c>
       <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2400</v>
       </c>
       <c r="H66" s="3">
         <v>2400</v>
       </c>
       <c r="I66" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J66" s="3">
         <v>2300</v>
       </c>
       <c r="K66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L66" s="3">
         <v>2200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2000</v>
       </c>
       <c r="M66" s="3">
         <v>2000</v>
       </c>
       <c r="N66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-80600</v>
+        <v>-80700</v>
       </c>
       <c r="E72" s="3">
         <v>-80600</v>
       </c>
       <c r="F72" s="3">
+        <v>-80600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-80300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-80200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-79900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-79700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-79600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-79500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-79400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-79200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-79000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-78800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-78600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-78200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-77900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-83200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-79200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-77100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="E76" s="3">
         <v>-1800</v>
       </c>
       <c r="F76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
-        <v>-200</v>
-      </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,83 +4856,89 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
@@ -4755,17 +4950,17 @@
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
@@ -4773,7 +4968,7 @@
         <v>-200</v>
       </c>
       <c r="O81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
@@ -4782,22 +4977,25 @@
         <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
         <v>5300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,16 +5498,17 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5298,8 +5519,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>24</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>24</v>
@@ -5310,11 +5531,11 @@
       <c r="L91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>24</v>
@@ -5322,26 +5543,29 @@
       <c r="P91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>24</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5518,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>100</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,40 +6041,43 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -5843,25 +6089,28 @@
         <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>-4900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>4600</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5931,11 +6183,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5946,42 +6198,45 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>-200</v>
-      </c>
       <c r="O102" s="3">
         <v>-200</v>
       </c>
       <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>ANDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,50 +773,50 @@
         <v>400</v>
       </c>
       <c r="F8" s="3">
+        <v>400</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>500</v>
       </c>
       <c r="O8" s="3">
         <v>500</v>
       </c>
       <c r="P8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6300</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
@@ -820,10 +824,13 @@
         <v>100</v>
       </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -840,10 +847,10 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -852,22 +859,22 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -876,7 +883,7 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -885,10 +892,13 @@
         <v>0</v>
       </c>
       <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -899,10 +909,10 @@
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
@@ -911,38 +921,38 @@
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
-      </c>
-      <c r="M10" s="3">
-        <v>300</v>
       </c>
       <c r="N10" s="3">
         <v>300</v>
       </c>
       <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
-      </c>
-      <c r="P10" s="3">
-        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
       </c>
       <c r="R10" s="3">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6200</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
@@ -950,10 +960,13 @@
         <v>100</v>
       </c>
       <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -998,11 +1012,11 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
@@ -1013,16 +1027,16 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>200</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,19 +1285,20 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>500</v>
@@ -1280,16 +1307,16 @@
         <v>500</v>
       </c>
       <c r="I17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
@@ -1301,72 +1328,75 @@
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>-200</v>
-      </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
@@ -1375,22 +1405,25 @@
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>5300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,29 +1447,30 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1444,20 +1478,20 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>-200</v>
-      </c>
       <c r="P21" s="3">
         <v>-200</v>
       </c>
       <c r="Q21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
       <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
         <v>5300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1609,19 +1649,22 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
@@ -1633,17 +1676,17 @@
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>-200</v>
-      </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
@@ -1651,7 +1694,7 @@
         <v>-200</v>
       </c>
       <c r="P23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
@@ -1660,22 +1703,25 @@
         <v>-300</v>
       </c>
       <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T23" s="3">
         <v>5300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,19 +1853,22 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
@@ -1828,17 +1880,17 @@
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>-200</v>
-      </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
@@ -1846,7 +1898,7 @@
         <v>-200</v>
       </c>
       <c r="P26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
@@ -1855,33 +1907,36 @@
         <v>-300</v>
       </c>
       <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T26" s="3">
         <v>5300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
@@ -1893,17 +1948,17 @@
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>-200</v>
-      </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
@@ -1911,7 +1966,7 @@
         <v>-200</v>
       </c>
       <c r="P27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
@@ -1920,22 +1975,25 @@
         <v>-300</v>
       </c>
       <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
         <v>5300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2046,8 +2107,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2058,14 +2119,17 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,28 +2261,31 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2224,19 +2294,19 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2259,19 +2329,22 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
@@ -2283,17 +2356,17 @@
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>-200</v>
-      </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
@@ -2301,7 +2374,7 @@
         <v>-200</v>
       </c>
       <c r="P33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
@@ -2310,22 +2383,25 @@
         <v>-300</v>
       </c>
       <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
         <v>5300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,19 +2465,22 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
@@ -2413,17 +2492,17 @@
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>-200</v>
-      </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
@@ -2431,7 +2510,7 @@
         <v>-200</v>
       </c>
       <c r="P35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
@@ -2440,92 +2519,98 @@
         <v>-300</v>
       </c>
       <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
         <v>5300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,13 +2660,14 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>400</v>
@@ -2598,13 +2685,13 @@
         <v>400</v>
       </c>
       <c r="J41" s="3">
+        <v>400</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
-      </c>
-      <c r="L41" s="3">
-        <v>500</v>
       </c>
       <c r="M41" s="3">
         <v>500</v>
@@ -2613,34 +2700,37 @@
         <v>500</v>
       </c>
       <c r="O41" s="3">
+        <v>500</v>
+      </c>
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2300</v>
-      </c>
-      <c r="V41" s="3">
-        <v>3000</v>
       </c>
       <c r="W41" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,31 +2794,34 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>24</v>
+      <c r="D43" s="3">
+        <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
@@ -2737,57 +2830,60 @@
         <v>400</v>
       </c>
       <c r="M43" s="3">
+        <v>400</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
-      </c>
-      <c r="R43" s="3">
-        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -2796,10 +2892,10 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
+        <v>200</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
@@ -2811,7 +2907,7 @@
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
@@ -2820,11 +2916,11 @@
         <v>100</v>
       </c>
       <c r="S44" s="3">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3">
-        <v>100</v>
-      </c>
       <c r="U44" s="3">
         <v>100</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,10 +2942,10 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2858,13 +2957,13 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2876,16 +2975,16 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2899,73 +2998,79 @@
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E46" s="3">
         <v>900</v>
       </c>
       <c r="F46" s="3">
+        <v>900</v>
+      </c>
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1100</v>
       </c>
       <c r="L46" s="3">
         <v>1100</v>
       </c>
       <c r="M46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N46" s="3">
         <v>1000</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1200</v>
       </c>
       <c r="O46" s="3">
         <v>1200</v>
       </c>
       <c r="P46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3044,7 +3152,7 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3071,10 +3179,10 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3127,7 +3238,7 @@
         <v>200</v>
       </c>
       <c r="M49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N49" s="3">
         <v>300</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1200</v>
       </c>
       <c r="G54" s="3">
         <v>1200</v>
       </c>
       <c r="H54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1600</v>
       </c>
       <c r="P54" s="3">
         <v>1600</v>
       </c>
       <c r="Q54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R54" s="3">
         <v>1700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,31 +3674,31 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
@@ -3579,28 +3710,31 @@
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3617,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>24</v>
@@ -3637,8 +3771,8 @@
       <c r="N58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3646,26 +3780,29 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6000</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3" t="s">
+      <c r="V58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3679,13 +3816,13 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3700,13 +3837,13 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -3724,13 +3861,16 @@
         <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,10 +3878,10 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
@@ -3780,45 +3920,48 @@
         <v>400</v>
       </c>
       <c r="S60" s="3">
+        <v>400</v>
+      </c>
+      <c r="T60" s="3">
         <v>7600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E61" s="3">
         <v>2500</v>
       </c>
       <c r="F61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G61" s="3">
         <v>2400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1900</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1800</v>
       </c>
       <c r="K61" s="3">
         <v>1800</v>
@@ -3827,40 +3970,43 @@
         <v>1800</v>
       </c>
       <c r="M61" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="N61" s="3">
         <v>1600</v>
       </c>
       <c r="O61" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="P61" s="3">
         <v>1400</v>
       </c>
       <c r="Q61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R61" s="3">
         <v>1300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1200</v>
       </c>
-      <c r="S61" s="3">
-        <v>100</v>
-      </c>
       <c r="T61" s="3">
+        <v>100</v>
+      </c>
+      <c r="U61" s="3">
         <v>6000</v>
-      </c>
-      <c r="U61" s="3">
-        <v>1400</v>
       </c>
       <c r="V61" s="3">
         <v>1400</v>
       </c>
       <c r="W61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3871,11 +4017,11 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
@@ -3894,8 +4040,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>24</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>24</v>
@@ -3906,8 +4052,8 @@
       <c r="Q62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4131,61 +4289,64 @@
         <v>3200</v>
       </c>
       <c r="F66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2400</v>
       </c>
       <c r="I66" s="3">
         <v>2400</v>
       </c>
       <c r="J66" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K66" s="3">
         <v>2300</v>
       </c>
       <c r="L66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M66" s="3">
         <v>2200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2000</v>
       </c>
       <c r="N66" s="3">
         <v>2000</v>
       </c>
       <c r="O66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4478,64 +4652,67 @@
         <v>-80700</v>
       </c>
       <c r="E72" s="3">
-        <v>-80600</v>
+        <v>-80700</v>
       </c>
       <c r="F72" s="3">
         <v>-80600</v>
       </c>
       <c r="G72" s="3">
+        <v>-80600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-80300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-80200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-79900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-79700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-79600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-79500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-79400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-79200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-79000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-78800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-78600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-78200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-77900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-83200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-79200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-77100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-1800</v>
       </c>
       <c r="F76" s="3">
         <v>-1800</v>
       </c>
       <c r="G76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,89 +5048,95 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
@@ -4953,17 +5148,17 @@
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>-200</v>
-      </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
@@ -4971,7 +5166,7 @@
         <v>-200</v>
       </c>
       <c r="P81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
@@ -4980,22 +5175,25 @@
         <v>-300</v>
       </c>
       <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
         <v>5300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>-200</v>
-      </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,19 +5719,20 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>24</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5522,8 +5743,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>24</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>24</v>
@@ -5534,11 +5755,11 @@
       <c r="M91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>24</v>
@@ -5546,26 +5767,29 @@
       <c r="Q91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>24</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5751,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>100</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,34 +6299,34 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
@@ -6092,25 +6338,28 @@
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>-4900</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>4600</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,23 +6423,26 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -6201,42 +6453,45 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>-200</v>
-      </c>
       <c r="P102" s="3">
         <v>-200</v>
       </c>
       <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,50 +779,50 @@
         <v>400</v>
       </c>
       <c r="G8" s="3">
+        <v>400</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>500</v>
       </c>
       <c r="P8" s="3">
         <v>500</v>
       </c>
       <c r="Q8" s="3">
+        <v>500</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6300</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
@@ -827,10 +830,13 @@
         <v>100</v>
       </c>
       <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -850,10 +856,10 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -862,22 +868,22 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
       <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -886,7 +892,7 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -895,10 +901,13 @@
         <v>0</v>
       </c>
       <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -912,10 +921,10 @@
         <v>300</v>
       </c>
       <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
@@ -924,38 +933,38 @@
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
-      </c>
-      <c r="N10" s="3">
-        <v>300</v>
       </c>
       <c r="O10" s="3">
         <v>300</v>
       </c>
       <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>200</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
       </c>
       <c r="S10" s="3">
+        <v>200</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6200</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
         <v>100</v>
       </c>
@@ -963,10 +972,13 @@
         <v>100</v>
       </c>
       <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,13 +1003,14 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -1015,11 +1028,11 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
@@ -1030,16 +1043,16 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>200</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,13 +1321,13 @@
         <v>600</v>
       </c>
       <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
@@ -1310,16 +1336,16 @@
         <v>500</v>
       </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>600</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
@@ -1331,31 +1357,34 @@
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1363,43 +1392,43 @@
         <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
@@ -1408,22 +1437,25 @@
         <v>-300</v>
       </c>
       <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
         <v>5300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,32 +1480,33 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1481,20 +1514,20 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1516,76 +1549,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
       <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
       <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
       <c r="R21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>5300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1652,22 +1691,25 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
@@ -1679,17 +1721,17 @@
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
@@ -1697,7 +1739,7 @@
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
@@ -1706,22 +1748,25 @@
         <v>-300</v>
       </c>
       <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
         <v>5300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,22 +1904,25 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
@@ -1883,17 +1934,17 @@
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
@@ -1901,7 +1952,7 @@
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
@@ -1910,36 +1961,39 @@
         <v>-300</v>
       </c>
       <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
         <v>5300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
@@ -1951,17 +2005,17 @@
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
@@ -1969,7 +2023,7 @@
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
@@ -1978,22 +2032,25 @@
         <v>-300</v>
       </c>
       <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
         <v>5300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2110,8 +2170,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2122,14 +2182,17 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,31 +2330,34 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2297,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2332,22 +2401,25 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
@@ -2359,17 +2431,17 @@
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
@@ -2377,7 +2449,7 @@
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
@@ -2386,22 +2458,25 @@
         <v>-300</v>
       </c>
       <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U33" s="3">
         <v>5300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,22 +2543,25 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
@@ -2495,17 +2573,17 @@
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
@@ -2513,7 +2591,7 @@
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
@@ -2522,95 +2600,101 @@
         <v>-300</v>
       </c>
       <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U35" s="3">
         <v>5300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,16 +2746,17 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>400</v>
       </c>
       <c r="F41" s="3">
         <v>400</v>
@@ -2688,13 +2774,13 @@
         <v>400</v>
       </c>
       <c r="K41" s="3">
+        <v>400</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
-      </c>
-      <c r="M41" s="3">
-        <v>500</v>
       </c>
       <c r="N41" s="3">
         <v>500</v>
@@ -2703,34 +2789,37 @@
         <v>500</v>
       </c>
       <c r="P41" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2300</v>
-      </c>
-      <c r="W41" s="3">
-        <v>3000</v>
       </c>
       <c r="X41" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,34 +2886,37 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>400</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
@@ -2833,45 +2925,48 @@
         <v>400</v>
       </c>
       <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
-      </c>
-      <c r="S43" s="3">
-        <v>300</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
       <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
@@ -2880,13 +2975,13 @@
         <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
@@ -2895,10 +2990,10 @@
         <v>200</v>
       </c>
       <c r="L44" s="3">
+        <v>200</v>
+      </c>
+      <c r="M44" s="3">
         <v>300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>200</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
@@ -2910,7 +3005,7 @@
         <v>200</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
@@ -2919,11 +3014,11 @@
         <v>100</v>
       </c>
       <c r="T44" s="3">
+        <v>100</v>
+      </c>
+      <c r="U44" s="3">
         <v>200</v>
       </c>
-      <c r="U44" s="3">
-        <v>100</v>
-      </c>
       <c r="V44" s="3">
         <v>100</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2945,10 +3043,10 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2960,13 +3058,13 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2978,16 +3076,16 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -3001,76 +3099,82 @@
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
-      </c>
-      <c r="E46" s="3">
-        <v>900</v>
       </c>
       <c r="F46" s="3">
         <v>900</v>
       </c>
       <c r="G46" s="3">
+        <v>900</v>
+      </c>
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1100</v>
       </c>
       <c r="M46" s="3">
         <v>1100</v>
       </c>
       <c r="N46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O46" s="3">
         <v>1000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1200</v>
       </c>
       <c r="P46" s="3">
         <v>1200</v>
       </c>
       <c r="Q46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3155,7 +3262,7 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -3182,10 +3289,10 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3241,7 +3351,7 @@
         <v>200</v>
       </c>
       <c r="N49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O49" s="3">
         <v>300</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1200</v>
       </c>
       <c r="H54" s="3">
         <v>1200</v>
       </c>
       <c r="I54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1600</v>
       </c>
       <c r="Q54" s="3">
         <v>1600</v>
       </c>
       <c r="R54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S54" s="3">
         <v>1700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,43 +3794,44 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
@@ -3713,28 +3843,31 @@
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3754,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>24</v>
@@ -3774,8 +3907,8 @@
       <c r="O58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3783,26 +3916,29 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6000</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3" t="s">
+      <c r="W58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3819,13 +3955,13 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3840,13 +3976,13 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3864,27 +4000,30 @@
         <v>100</v>
       </c>
       <c r="W59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
       </c>
       <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
@@ -3923,48 +4062,51 @@
         <v>400</v>
       </c>
       <c r="T60" s="3">
+        <v>400</v>
+      </c>
+      <c r="U60" s="3">
         <v>7600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2400</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2500</v>
       </c>
       <c r="F61" s="3">
         <v>2500</v>
       </c>
       <c r="G61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H61" s="3">
         <v>2400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1900</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1800</v>
       </c>
       <c r="L61" s="3">
         <v>1800</v>
@@ -3973,40 +4115,43 @@
         <v>1800</v>
       </c>
       <c r="N61" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="O61" s="3">
         <v>1600</v>
       </c>
       <c r="P61" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="Q61" s="3">
         <v>1400</v>
       </c>
       <c r="R61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S61" s="3">
         <v>1300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1200</v>
       </c>
-      <c r="T61" s="3">
-        <v>100</v>
-      </c>
       <c r="U61" s="3">
+        <v>100</v>
+      </c>
+      <c r="V61" s="3">
         <v>6000</v>
-      </c>
-      <c r="V61" s="3">
-        <v>1400</v>
       </c>
       <c r="W61" s="3">
         <v>1400</v>
       </c>
       <c r="X61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4020,11 +4165,11 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
@@ -4043,8 +4188,8 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>24</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>24</v>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,13 +4431,16 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E66" s="3">
         <v>3200</v>
@@ -4292,61 +4449,64 @@
         <v>3200</v>
       </c>
       <c r="G66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2400</v>
       </c>
       <c r="J66" s="3">
         <v>2400</v>
       </c>
       <c r="K66" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="L66" s="3">
         <v>2300</v>
       </c>
       <c r="M66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N66" s="3">
         <v>2200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2000</v>
       </c>
       <c r="O66" s="3">
         <v>2000</v>
       </c>
       <c r="P66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-80700</v>
+        <v>-80900</v>
       </c>
       <c r="E72" s="3">
         <v>-80700</v>
       </c>
       <c r="F72" s="3">
-        <v>-80600</v>
+        <v>-80700</v>
       </c>
       <c r="G72" s="3">
         <v>-80600</v>
       </c>
       <c r="H72" s="3">
+        <v>-80600</v>
+      </c>
+      <c r="I72" s="3">
         <v>-80300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-80200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-79900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-79700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-79600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-79500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-79400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-79200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-79000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-78800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-78600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-78200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-77900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-83200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-79200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-77100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1800</v>
       </c>
       <c r="G76" s="3">
         <v>-1800</v>
       </c>
       <c r="H76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I76" s="3">
         <v>-1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
-        <v>-200</v>
-      </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,95 +5239,101 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
@@ -5151,17 +5345,17 @@
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
@@ -5169,7 +5363,7 @@
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
@@ -5178,22 +5372,25 @@
         <v>-300</v>
       </c>
       <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U81" s="3">
         <v>5300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,67 +5851,70 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
       <c r="R89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,22 +5939,23 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>24</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5746,8 +5966,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>24</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>24</v>
@@ -5758,11 +5978,11 @@
       <c r="N91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>24</v>
@@ -5770,26 +5990,29 @@
       <c r="R91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>24</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5984,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>100</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6302,34 +6547,34 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
@@ -6341,25 +6586,28 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>-4900</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>4600</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6435,17 +6686,17 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6456,42 +6707,45 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q102" s="3">
         <v>-200</v>
       </c>
       <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>ANDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,123 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>400</v>
@@ -782,7 +790,7 @@
         <v>400</v>
       </c>
       <c r="H8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
@@ -794,54 +802,60 @@
         <v>400</v>
       </c>
       <c r="L8" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>400</v>
       </c>
       <c r="N8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O8" s="3">
         <v>400</v>
       </c>
       <c r="P8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>400</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>6300</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
       <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -859,19 +873,19 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -883,39 +897,45 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
       <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
@@ -924,19 +944,19 @@
         <v>300</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
       </c>
       <c r="J10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
       </c>
       <c r="L10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
@@ -948,37 +968,43 @@
         <v>300</v>
       </c>
       <c r="P10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
+        <v>300</v>
+      </c>
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>6200</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
       <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,20 +1030,22 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
@@ -1031,14 +1059,14 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
@@ -1046,19 +1074,19 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>200</v>
       </c>
       <c r="T12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>200</v>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,31 +1180,37 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,19 +1364,21 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
       </c>
       <c r="F17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
@@ -1333,25 +1387,25 @@
         <v>500</v>
       </c>
       <c r="I17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
       </c>
       <c r="O17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
@@ -1360,102 +1414,114 @@
         <v>600</v>
       </c>
       <c r="R17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S17" s="3">
         <v>600</v>
       </c>
       <c r="T17" s="3">
+        <v>500</v>
+      </c>
+      <c r="U17" s="3">
+        <v>600</v>
+      </c>
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>4100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-300</v>
       </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
       <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
         <v>5300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-4000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-2100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1490,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1502,38 +1570,38 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1552,37 +1620,43 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
@@ -1600,31 +1674,37 @@
         <v>-200</v>
       </c>
       <c r="R21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>5300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-4100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-2000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1694,16 +1774,22 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
@@ -1715,7 +1801,7 @@
         <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
@@ -1724,7 +1810,7 @@
         <v>-200</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
@@ -1736,37 +1822,43 @@
         <v>-200</v>
       </c>
       <c r="P23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-300</v>
       </c>
       <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W23" s="3">
         <v>5300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-4100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-2100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,16 +2005,22 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
@@ -1928,7 +2032,7 @@
         <v>-200</v>
       </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
@@ -1937,7 +2041,7 @@
         <v>-200</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
@@ -1949,45 +2053,51 @@
         <v>-200</v>
       </c>
       <c r="P26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-300</v>
       </c>
       <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W26" s="3">
         <v>5300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-4100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-2100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
@@ -1999,7 +2109,7 @@
         <v>-200</v>
       </c>
       <c r="I27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
@@ -2008,7 +2118,7 @@
         <v>-200</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
@@ -2020,37 +2130,43 @@
         <v>-200</v>
       </c>
       <c r="P27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
       <c r="R27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-300</v>
       </c>
       <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W27" s="3">
         <v>5300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-4100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-2100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2173,11 +2295,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2185,14 +2307,20 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2354,37 +2494,37 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2404,16 +2544,22 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
@@ -2425,7 +2571,7 @@
         <v>-200</v>
       </c>
       <c r="I33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
@@ -2434,7 +2580,7 @@
         <v>-200</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
@@ -2446,37 +2592,43 @@
         <v>-200</v>
       </c>
       <c r="P33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-300</v>
       </c>
       <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W33" s="3">
         <v>5300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-4100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-2100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,16 +2698,22 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
@@ -2567,7 +2725,7 @@
         <v>-200</v>
       </c>
       <c r="I35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
@@ -2576,7 +2734,7 @@
         <v>-200</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
@@ -2588,113 +2746,125 @@
         <v>-200</v>
       </c>
       <c r="P35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-300</v>
       </c>
       <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W35" s="3">
         <v>5300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-4100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-2100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,22 +2919,24 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>400</v>
       </c>
       <c r="H41" s="3">
         <v>400</v>
@@ -2777,49 +2951,55 @@
         <v>400</v>
       </c>
       <c r="L41" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M41" s="3">
         <v>400</v>
       </c>
       <c r="N41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P41" s="3">
         <v>500</v>
       </c>
       <c r="Q41" s="3">
+        <v>500</v>
+      </c>
+      <c r="R41" s="3">
+        <v>500</v>
+      </c>
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>7500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>3000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,16 +3069,22 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -2913,22 +3099,22 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>400</v>
       </c>
       <c r="O43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P43" s="3">
         <v>400</v>
@@ -2937,31 +3123,37 @@
         <v>300</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="S43" s="3">
+        <v>300</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
-      <c r="W43" s="3">
-        <v>100</v>
-      </c>
       <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2969,37 +3161,37 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
@@ -3008,36 +3200,42 @@
         <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T44" s="3">
         <v>100</v>
       </c>
       <c r="U44" s="3">
+        <v>100</v>
+      </c>
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+      <c r="W44" s="3">
         <v>200</v>
       </c>
-      <c r="V44" s="3">
-        <v>100</v>
-      </c>
-      <c r="W44" s="3">
-        <v>100</v>
-      </c>
       <c r="X44" s="3">
         <v>100</v>
       </c>
       <c r="Y44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -3046,13 +3244,13 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -3061,16 +3259,16 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -3079,19 +3277,19 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3102,79 +3300,91 @@
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
         <v>800</v>
       </c>
       <c r="F46" s="3">
+        <v>700</v>
+      </c>
+      <c r="G46" s="3">
+        <v>800</v>
+      </c>
+      <c r="H46" s="3">
         <v>900</v>
-      </c>
-      <c r="G46" s="3">
-        <v>900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>800</v>
       </c>
       <c r="I46" s="3">
         <v>900</v>
       </c>
       <c r="J46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K46" s="3">
         <v>900</v>
       </c>
       <c r="L46" s="3">
+        <v>700</v>
+      </c>
+      <c r="M46" s="3">
+        <v>900</v>
+      </c>
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>8000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3265,10 +3481,10 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -3292,13 +3508,13 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3354,10 +3576,10 @@
         <v>200</v>
       </c>
       <c r="O49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q49" s="3">
         <v>300</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,43 +3916,49 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1000</v>
       </c>
       <c r="K54" s="3">
         <v>1200</v>
       </c>
       <c r="L54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N54" s="3">
         <v>1300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1500</v>
       </c>
       <c r="O54" s="3">
         <v>1400</v>
@@ -3715,34 +3967,40 @@
         <v>1500</v>
       </c>
       <c r="Q54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S54" s="3">
         <v>1600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,25 +4066,25 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -3837,7 +4099,7 @@
         <v>400</v>
       </c>
       <c r="P57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
@@ -3846,28 +4108,34 @@
         <v>400</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
       </c>
       <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
+        <v>400</v>
+      </c>
+      <c r="W57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3890,13 +4158,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>24</v>
@@ -3910,35 +4178,41 @@
       <c r="P58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>24</v>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="W58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="X58" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="X58" s="3">
-        <v>0</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3958,16 +4232,16 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -3979,16 +4253,16 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
@@ -4003,33 +4277,39 @@
         <v>100</v>
       </c>
       <c r="X59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z59" s="3">
         <v>200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
@@ -4065,93 +4345,105 @@
         <v>400</v>
       </c>
       <c r="U60" s="3">
+        <v>400</v>
+      </c>
+      <c r="V60" s="3">
+        <v>400</v>
+      </c>
+      <c r="W60" s="3">
         <v>7600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2500</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2400</v>
       </c>
       <c r="F61" s="3">
         <v>2500</v>
       </c>
       <c r="G61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H61" s="3">
         <v>2500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J61" s="3">
         <v>2400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1900</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1800</v>
       </c>
       <c r="N61" s="3">
         <v>1800</v>
       </c>
       <c r="O61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1200</v>
       </c>
-      <c r="U61" s="3">
-        <v>100</v>
-      </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
+        <v>100</v>
+      </c>
+      <c r="X61" s="3">
         <v>6000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4168,14 +4460,14 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
@@ -4191,11 +4483,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>24</v>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>24</v>
@@ -4203,11 +4495,11 @@
       <c r="S62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
         <v>3300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3200</v>
       </c>
       <c r="G66" s="3">
         <v>3200</v>
       </c>
       <c r="H66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +5158,14 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4825,70 +5173,76 @@
         <v>-80900</v>
       </c>
       <c r="E72" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-80700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-80700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-80600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-80600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-80300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-80200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-79900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-79700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-79600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-79500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-79400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-79200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-79000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-78800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-78600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-78200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-77900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-83200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-79200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-77100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,8 +5466,14 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5109,70 +5481,76 @@
         <v>-2200</v>
       </c>
       <c r="E76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
       <c r="T76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-4700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,92 +5620,104 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
@@ -5339,7 +5729,7 @@
         <v>-200</v>
       </c>
       <c r="I81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
@@ -5348,7 +5738,7 @@
         <v>-200</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
@@ -5360,37 +5750,43 @@
         <v>-200</v>
       </c>
       <c r="P81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-300</v>
       </c>
       <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W81" s="3">
         <v>5300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-4100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-2100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5854,13 +6288,13 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
@@ -5869,52 +6303,58 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-2500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5951,29 +6393,29 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="I91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>24</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>24</v>
@@ -5981,38 +6423,44 @@
       <c r="O91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>24</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
+      <c r="T91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="U91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6216,16 +6676,22 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6544,43 +7036,43 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
@@ -6589,25 +7081,31 @@
         <v>100</v>
       </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>-4900</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>4600</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6686,23 +7190,23 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -6710,42 +7214,48 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-200</v>
-      </c>
       <c r="S102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-6300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>3100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>2100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,10 +785,10 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
@@ -796,50 +800,50 @@
         <v>400</v>
       </c>
       <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>500</v>
       </c>
       <c r="S8" s="3">
         <v>500</v>
       </c>
       <c r="T8" s="3">
+        <v>500</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6300</v>
       </c>
-      <c r="X8" s="3">
-        <v>100</v>
-      </c>
       <c r="Y8" s="3">
         <v>100</v>
       </c>
@@ -847,10 +851,13 @@
         <v>100</v>
       </c>
       <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,7 +865,7 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -879,10 +886,10 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -891,22 +898,22 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
-        <v>100</v>
-      </c>
       <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3">
-        <v>100</v>
-      </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
@@ -915,7 +922,7 @@
         <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
@@ -924,10 +931,13 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -938,7 +948,7 @@
         <v>400</v>
       </c>
       <c r="F10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
@@ -950,10 +960,10 @@
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
@@ -962,38 +972,38 @@
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>300</v>
       </c>
       <c r="R10" s="3">
         <v>300</v>
       </c>
       <c r="S10" s="3">
+        <v>300</v>
+      </c>
+      <c r="T10" s="3">
         <v>400</v>
-      </c>
-      <c r="T10" s="3">
-        <v>200</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
       </c>
       <c r="V10" s="3">
+        <v>200</v>
+      </c>
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6200</v>
       </c>
-      <c r="X10" s="3">
-        <v>100</v>
-      </c>
       <c r="Y10" s="3">
         <v>100</v>
       </c>
@@ -1001,10 +1011,13 @@
         <v>100</v>
       </c>
       <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,11 +1058,11 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
@@ -1065,11 +1079,11 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
-        <v>100</v>
-      </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
@@ -1080,16 +1094,16 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>200</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V12" s="3">
         <v>200</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,16 +1203,19 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -1212,8 +1232,8 @@
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,16 +1392,17 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>600</v>
@@ -1384,13 +1411,13 @@
         <v>600</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
@@ -1399,16 +1426,16 @@
         <v>500</v>
       </c>
       <c r="M17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
@@ -1420,84 +1447,87 @@
         <v>600</v>
       </c>
       <c r="T17" s="3">
+        <v>600</v>
+      </c>
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
@@ -1506,22 +1536,25 @@
         <v>-300</v>
       </c>
       <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X18" s="3">
         <v>5300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1564,26 +1598,26 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1591,20 +1625,20 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1626,85 +1660,91 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-200</v>
-      </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>-200</v>
-      </c>
       <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
-      </c>
       <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>-200</v>
-      </c>
       <c r="T21" s="3">
         <v>-200</v>
       </c>
       <c r="U21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="V21" s="3">
         <v>-300</v>
       </c>
       <c r="W21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X21" s="3">
         <v>5300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1780,31 +1820,34 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
@@ -1816,17 +1859,17 @@
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
-      </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
@@ -1834,7 +1877,7 @@
         <v>-200</v>
       </c>
       <c r="T23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-300</v>
@@ -1843,22 +1886,25 @@
         <v>-300</v>
       </c>
       <c r="W23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X23" s="3">
         <v>5300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,31 +2060,34 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
@@ -2047,17 +2099,17 @@
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
-      </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
@@ -2065,7 +2117,7 @@
         <v>-200</v>
       </c>
       <c r="T26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-300</v>
@@ -2074,45 +2126,48 @@
         <v>-300</v>
       </c>
       <c r="W26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X26" s="3">
         <v>5300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
@@ -2124,17 +2179,17 @@
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
-      </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
@@ -2142,7 +2197,7 @@
         <v>-200</v>
       </c>
       <c r="T27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-300</v>
@@ -2151,22 +2206,25 @@
         <v>-300</v>
       </c>
       <c r="W27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X27" s="3">
         <v>5300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2301,8 +2362,8 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2313,14 +2374,17 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2488,25 +2558,25 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2515,19 +2585,19 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2550,31 +2620,34 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
@@ -2586,17 +2659,17 @@
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
-      </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
@@ -2604,7 +2677,7 @@
         <v>-200</v>
       </c>
       <c r="T33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-300</v>
@@ -2613,22 +2686,25 @@
         <v>-300</v>
       </c>
       <c r="W33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X33" s="3">
         <v>5300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,31 +2780,34 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
@@ -2740,17 +2819,17 @@
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
-      </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
@@ -2758,7 +2837,7 @@
         <v>-200</v>
       </c>
       <c r="T35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-300</v>
@@ -2767,104 +2846,110 @@
         <v>-300</v>
       </c>
       <c r="W35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X35" s="3">
         <v>5300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,25 +3007,26 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>400</v>
       </c>
       <c r="I41" s="3">
         <v>400</v>
@@ -2957,13 +3044,13 @@
         <v>400</v>
       </c>
       <c r="N41" s="3">
+        <v>400</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
-      </c>
-      <c r="P41" s="3">
-        <v>500</v>
       </c>
       <c r="Q41" s="3">
         <v>500</v>
@@ -2972,34 +3059,37 @@
         <v>500</v>
       </c>
       <c r="S41" s="3">
+        <v>500</v>
+      </c>
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2300</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>3000</v>
       </c>
       <c r="AA41" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,43 +3165,46 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
       <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>400</v>
       </c>
       <c r="O43" s="3">
         <v>400</v>
@@ -3120,45 +3213,48 @@
         <v>400</v>
       </c>
       <c r="Q43" s="3">
+        <v>400</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
-      </c>
-      <c r="V43" s="3">
-        <v>300</v>
       </c>
       <c r="W43" s="3">
         <v>300</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
       </c>
       <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
@@ -3167,7 +3263,7 @@
         <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -3176,13 +3272,13 @@
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
@@ -3191,10 +3287,10 @@
         <v>200</v>
       </c>
       <c r="O44" s="3">
+        <v>200</v>
+      </c>
+      <c r="P44" s="3">
         <v>300</v>
-      </c>
-      <c r="P44" s="3">
-        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
@@ -3206,7 +3302,7 @@
         <v>200</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U44" s="3">
         <v>100</v>
@@ -3215,11 +3311,11 @@
         <v>100</v>
       </c>
       <c r="W44" s="3">
+        <v>100</v>
+      </c>
+      <c r="X44" s="3">
         <v>200</v>
       </c>
-      <c r="X44" s="3">
-        <v>100</v>
-      </c>
       <c r="Y44" s="3">
         <v>100</v>
       </c>
@@ -3229,17 +3325,20 @@
       <c r="AA44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
@@ -3250,10 +3349,10 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -3265,13 +3364,13 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -3283,16 +3382,16 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
@@ -3306,85 +3405,91 @@
       <c r="AA45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>900</v>
       </c>
       <c r="I46" s="3">
         <v>900</v>
       </c>
       <c r="J46" s="3">
+        <v>900</v>
+      </c>
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1100</v>
       </c>
       <c r="P46" s="3">
         <v>1100</v>
       </c>
       <c r="Q46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R46" s="3">
         <v>1000</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1200</v>
       </c>
       <c r="S46" s="3">
         <v>1200</v>
       </c>
       <c r="T46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U46" s="3">
         <v>1300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3487,7 +3595,7 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -3514,10 +3622,10 @@
         <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3582,7 +3693,7 @@
         <v>200</v>
       </c>
       <c r="Q49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R49" s="3">
         <v>300</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1100</v>
       </c>
       <c r="F54" s="3">
         <v>1100</v>
       </c>
       <c r="G54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1200</v>
       </c>
       <c r="K54" s="3">
         <v>1200</v>
       </c>
       <c r="L54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1500</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1600</v>
       </c>
       <c r="T54" s="3">
         <v>1600</v>
       </c>
       <c r="U54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V54" s="3">
         <v>1700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,13 +4187,14 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
@@ -4072,37 +4203,37 @@
         <v>700</v>
       </c>
       <c r="G57" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
@@ -4114,28 +4245,31 @@
         <v>400</v>
       </c>
       <c r="U57" s="3">
+        <v>400</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4164,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>24</v>
@@ -4184,8 +4318,8 @@
       <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4193,26 +4327,29 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6000</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="3" t="s">
+      <c r="Z58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4238,13 +4375,13 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -4259,13 +4396,13 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
@@ -4283,36 +4420,39 @@
         <v>100</v>
       </c>
       <c r="Z59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>700</v>
       </c>
       <c r="F60" s="3">
         <v>700</v>
       </c>
       <c r="G60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
       </c>
       <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
@@ -4351,57 +4491,60 @@
         <v>400</v>
       </c>
       <c r="W60" s="3">
+        <v>400</v>
+      </c>
+      <c r="X60" s="3">
         <v>7600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2500</v>
       </c>
       <c r="F61" s="3">
         <v>2500</v>
       </c>
       <c r="G61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H61" s="3">
         <v>2400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2500</v>
       </c>
       <c r="I61" s="3">
         <v>2500</v>
       </c>
       <c r="J61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1900</v>
-      </c>
-      <c r="N61" s="3">
-        <v>1800</v>
       </c>
       <c r="O61" s="3">
         <v>1800</v>
@@ -4410,40 +4553,43 @@
         <v>1800</v>
       </c>
       <c r="Q61" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="R61" s="3">
         <v>1600</v>
       </c>
       <c r="S61" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="T61" s="3">
         <v>1400</v>
       </c>
       <c r="U61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V61" s="3">
         <v>1300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1200</v>
       </c>
-      <c r="W61" s="3">
-        <v>100</v>
-      </c>
       <c r="X61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y61" s="3">
         <v>6000</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>1400</v>
       </c>
       <c r="Z61" s="3">
         <v>1400</v>
       </c>
       <c r="AA61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4466,11 +4612,11 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
@@ -4489,8 +4635,8 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>24</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>24</v>
@@ -4501,8 +4647,8 @@
       <c r="U62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,22 +4905,25 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E66" s="3">
         <v>3400</v>
       </c>
       <c r="F66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G66" s="3">
         <v>3300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3200</v>
       </c>
       <c r="H66" s="3">
         <v>3200</v>
@@ -4774,61 +4932,64 @@
         <v>3200</v>
       </c>
       <c r="J66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2400</v>
       </c>
       <c r="M66" s="3">
         <v>2400</v>
       </c>
       <c r="N66" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="O66" s="3">
         <v>2300</v>
       </c>
       <c r="P66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2000</v>
       </c>
       <c r="R66" s="3">
         <v>2000</v>
       </c>
       <c r="S66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T66" s="3">
         <v>1900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5173,76 +5347,79 @@
         <v>-80900</v>
       </c>
       <c r="E72" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-81000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-80900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-80700</v>
       </c>
       <c r="H72" s="3">
         <v>-80700</v>
       </c>
       <c r="I72" s="3">
-        <v>-80600</v>
+        <v>-80700</v>
       </c>
       <c r="J72" s="3">
         <v>-80600</v>
       </c>
       <c r="K72" s="3">
+        <v>-80600</v>
+      </c>
+      <c r="L72" s="3">
         <v>-80300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-80200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-79900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-79700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-79600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-79500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-79400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-79200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-79000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-78800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-78600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-78200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-77900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-83200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-79200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-77100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,76 +5667,79 @@
         <v>-2200</v>
       </c>
       <c r="E76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1800</v>
       </c>
       <c r="J76" s="3">
         <v>-1800</v>
       </c>
       <c r="K76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
-        <v>-200</v>
-      </c>
       <c r="U76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
         <v>300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,113 +5815,119 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
@@ -5744,17 +5939,17 @@
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
-      </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
@@ -5762,7 +5957,7 @@
         <v>-200</v>
       </c>
       <c r="T81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-300</v>
@@ -5771,22 +5966,25 @@
         <v>-300</v>
       </c>
       <c r="W81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X81" s="3">
         <v>5300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,13 +6490,16 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -6294,67 +6511,70 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-300</v>
       </c>
       <c r="U89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-1400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6399,14 +6620,14 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>24</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6417,8 +6638,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>24</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>24</v>
@@ -6429,11 +6650,11 @@
       <c r="Q91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>24</v>
@@ -6441,26 +6662,29 @@
       <c r="U91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>24</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6682,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z94" s="3">
         <v>100</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,19 +7270,22 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -7048,34 +7294,34 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
@@ -7087,25 +7333,28 @@
         <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>-4900</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>4600</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,35 +7430,38 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -7220,42 +7472,45 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>-200</v>
-      </c>
       <c r="T102" s="3">
         <v>-200</v>
       </c>
       <c r="U102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>ANDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,136 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>600</v>
       </c>
       <c r="F8" s="3">
+        <v>600</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>400</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
@@ -803,50 +806,50 @@
         <v>400</v>
       </c>
       <c r="K8" s="3">
+        <v>400</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>500</v>
       </c>
       <c r="T8" s="3">
         <v>500</v>
       </c>
       <c r="U8" s="3">
+        <v>500</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6300</v>
       </c>
-      <c r="Y8" s="3">
-        <v>100</v>
-      </c>
       <c r="Z8" s="3">
         <v>100</v>
       </c>
@@ -854,21 +857,24 @@
         <v>100</v>
       </c>
       <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -889,10 +895,10 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -901,22 +907,22 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
-        <v>100</v>
-      </c>
       <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3">
-        <v>100</v>
-      </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
@@ -925,7 +931,7 @@
         <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
@@ -934,15 +940,18 @@
         <v>0</v>
       </c>
       <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>400</v>
@@ -951,7 +960,7 @@
         <v>400</v>
       </c>
       <c r="G10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
@@ -963,10 +972,10 @@
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
@@ -975,38 +984,38 @@
         <v>300</v>
       </c>
       <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>300</v>
       </c>
       <c r="S10" s="3">
         <v>300</v>
       </c>
       <c r="T10" s="3">
+        <v>300</v>
+      </c>
+      <c r="U10" s="3">
         <v>400</v>
-      </c>
-      <c r="U10" s="3">
-        <v>200</v>
       </c>
       <c r="V10" s="3">
         <v>200</v>
       </c>
       <c r="W10" s="3">
+        <v>200</v>
+      </c>
+      <c r="X10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6200</v>
       </c>
-      <c r="Y10" s="3">
-        <v>100</v>
-      </c>
       <c r="Z10" s="3">
         <v>100</v>
       </c>
@@ -1014,10 +1023,13 @@
         <v>100</v>
       </c>
       <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,11 +1074,11 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
@@ -1082,11 +1095,11 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
-        <v>100</v>
-      </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
@@ -1097,16 +1110,16 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>200</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W12" s="3">
         <v>200</v>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1215,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
@@ -1235,8 +1254,8 @@
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,19 +1418,20 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>600</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
@@ -1414,13 +1440,13 @@
         <v>600</v>
       </c>
       <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
@@ -1429,16 +1455,16 @@
         <v>500</v>
       </c>
       <c r="N17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
@@ -1450,87 +1476,90 @@
         <v>600</v>
       </c>
       <c r="U17" s="3">
+        <v>600</v>
+      </c>
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>-300</v>
@@ -1539,22 +1568,25 @@
         <v>-300</v>
       </c>
       <c r="X18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y18" s="3">
         <v>5300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,13 +1615,14 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1601,26 +1634,26 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1628,20 +1661,20 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1663,88 +1696,94 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>-200</v>
-      </c>
       <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>-200</v>
-      </c>
       <c r="U21" s="3">
         <v>-200</v>
       </c>
       <c r="V21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="W21" s="3">
         <v>-300</v>
       </c>
       <c r="X21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y21" s="3">
         <v>5300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1823,34 +1862,37 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
@@ -1862,17 +1904,17 @@
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>-200</v>
-      </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
@@ -1880,7 +1922,7 @@
         <v>-200</v>
       </c>
       <c r="U23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
@@ -1889,22 +1931,25 @@
         <v>-300</v>
       </c>
       <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>5300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,34 +2111,37 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
@@ -2102,17 +2153,17 @@
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>-200</v>
-      </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
@@ -2120,7 +2171,7 @@
         <v>-200</v>
       </c>
       <c r="U26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="V26" s="3">
         <v>-300</v>
@@ -2129,48 +2180,51 @@
         <v>-300</v>
       </c>
       <c r="X26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>5300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
@@ -2182,17 +2236,17 @@
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>-200</v>
-      </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
@@ -2200,7 +2254,7 @@
         <v>-200</v>
       </c>
       <c r="U27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="V27" s="3">
         <v>-300</v>
@@ -2209,22 +2263,25 @@
         <v>-300</v>
       </c>
       <c r="X27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y27" s="3">
         <v>5300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2365,8 +2425,8 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2377,14 +2437,17 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,13 +2609,16 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2561,25 +2630,25 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2588,19 +2657,19 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2623,34 +2692,37 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
@@ -2662,17 +2734,17 @@
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>-200</v>
-      </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
@@ -2680,7 +2752,7 @@
         <v>-200</v>
       </c>
       <c r="U33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="V33" s="3">
         <v>-300</v>
@@ -2689,22 +2761,25 @@
         <v>-300</v>
       </c>
       <c r="X33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y33" s="3">
         <v>5300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,34 +2858,37 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
@@ -2822,17 +2900,17 @@
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>-200</v>
-      </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
@@ -2840,7 +2918,7 @@
         <v>-200</v>
       </c>
       <c r="U35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="V35" s="3">
         <v>-300</v>
@@ -2849,107 +2927,113 @@
         <v>-300</v>
       </c>
       <c r="X35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y35" s="3">
         <v>5300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3093,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3017,19 +3103,19 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>400</v>
       </c>
       <c r="J41" s="3">
         <v>400</v>
@@ -3047,13 +3133,13 @@
         <v>400</v>
       </c>
       <c r="O41" s="3">
+        <v>400</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>500</v>
       </c>
       <c r="R41" s="3">
         <v>500</v>
@@ -3062,34 +3148,37 @@
         <v>500</v>
       </c>
       <c r="T41" s="3">
+        <v>500</v>
+      </c>
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2300</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>3000</v>
       </c>
       <c r="AB41" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,46 +3257,49 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
       <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>400</v>
       </c>
       <c r="P43" s="3">
         <v>400</v>
@@ -3216,48 +3308,51 @@
         <v>400</v>
       </c>
       <c r="R43" s="3">
+        <v>400</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
       <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
-      </c>
-      <c r="W43" s="3">
-        <v>300</v>
       </c>
       <c r="X43" s="3">
         <v>300</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Z43" s="3">
         <v>100</v>
       </c>
       <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
-      </c>
-      <c r="E44" s="3">
-        <v>300</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
@@ -3266,7 +3361,7 @@
         <v>300</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -3275,13 +3370,13 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
@@ -3290,10 +3385,10 @@
         <v>200</v>
       </c>
       <c r="P44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>300</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
@@ -3305,7 +3400,7 @@
         <v>200</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V44" s="3">
         <v>100</v>
@@ -3314,11 +3409,11 @@
         <v>100</v>
       </c>
       <c r="X44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y44" s="3">
         <v>200</v>
       </c>
-      <c r="Y44" s="3">
-        <v>100</v>
-      </c>
       <c r="Z44" s="3">
         <v>100</v>
       </c>
@@ -3328,20 +3423,23 @@
       <c r="AB44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
@@ -3352,10 +3450,10 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3367,13 +3465,13 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -3385,16 +3483,16 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
@@ -3408,88 +3506,94 @@
       <c r="AB45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
-      </c>
-      <c r="I46" s="3">
-        <v>900</v>
       </c>
       <c r="J46" s="3">
         <v>900</v>
       </c>
       <c r="K46" s="3">
+        <v>900</v>
+      </c>
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1100</v>
       </c>
       <c r="Q46" s="3">
         <v>1100</v>
       </c>
       <c r="R46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S46" s="3">
         <v>1000</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1200</v>
       </c>
       <c r="T46" s="3">
         <v>1200</v>
       </c>
       <c r="U46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V46" s="3">
         <v>1300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3598,7 +3705,7 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -3625,10 +3732,10 @@
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
@@ -3648,8 +3755,11 @@
       <c r="AB48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3696,7 +3806,7 @@
         <v>200</v>
       </c>
       <c r="R49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S49" s="3">
         <v>300</v>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1100</v>
       </c>
       <c r="G54" s="3">
         <v>1100</v>
       </c>
       <c r="H54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1200</v>
       </c>
       <c r="L54" s="3">
         <v>1200</v>
       </c>
       <c r="M54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1500</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1600</v>
       </c>
       <c r="U54" s="3">
         <v>1600</v>
       </c>
       <c r="V54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W54" s="3">
         <v>1700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,16 +4317,17 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
@@ -4206,37 +4336,37 @@
         <v>700</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
@@ -4248,28 +4378,31 @@
         <v>400</v>
       </c>
       <c r="V57" s="3">
+        <v>400</v>
+      </c>
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4301,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>24</v>
@@ -4321,8 +4454,8 @@
       <c r="S58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4330,26 +4463,29 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6000</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="3" t="s">
+      <c r="AA58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4378,13 +4514,13 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -4399,13 +4535,13 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
@@ -4423,39 +4559,42 @@
         <v>100</v>
       </c>
       <c r="AA59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>700</v>
       </c>
       <c r="G60" s="3">
         <v>700</v>
       </c>
       <c r="H60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I60" s="3">
         <v>600</v>
       </c>
       <c r="J60" s="3">
+        <v>600</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
@@ -4494,22 +4633,25 @@
         <v>400</v>
       </c>
       <c r="X60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y60" s="3">
         <v>7600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4517,37 +4659,37 @@
         <v>2700</v>
       </c>
       <c r="E61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F61" s="3">
         <v>2600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>2500</v>
       </c>
       <c r="G61" s="3">
         <v>2500</v>
       </c>
       <c r="H61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I61" s="3">
         <v>2400</v>
-      </c>
-      <c r="I61" s="3">
-        <v>2500</v>
       </c>
       <c r="J61" s="3">
         <v>2500</v>
       </c>
       <c r="K61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L61" s="3">
         <v>2400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1900</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1800</v>
       </c>
       <c r="P61" s="3">
         <v>1800</v>
@@ -4556,40 +4698,43 @@
         <v>1800</v>
       </c>
       <c r="R61" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="S61" s="3">
         <v>1600</v>
       </c>
       <c r="T61" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="U61" s="3">
         <v>1400</v>
       </c>
       <c r="V61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W61" s="3">
         <v>1300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1200</v>
       </c>
-      <c r="X61" s="3">
-        <v>100</v>
-      </c>
       <c r="Y61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z61" s="3">
         <v>6000</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>1400</v>
       </c>
       <c r="AA61" s="3">
         <v>1400</v>
       </c>
       <c r="AB61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4615,11 +4760,11 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
@@ -4638,8 +4783,8 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>24</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>24</v>
@@ -4650,8 +4795,8 @@
       <c r="V62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,25 +5062,28 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3400</v>
       </c>
       <c r="F66" s="3">
         <v>3400</v>
       </c>
       <c r="G66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H66" s="3">
         <v>3300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3200</v>
       </c>
       <c r="I66" s="3">
         <v>3200</v>
@@ -4935,61 +5092,64 @@
         <v>3200</v>
       </c>
       <c r="K66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2400</v>
       </c>
       <c r="N66" s="3">
         <v>2400</v>
       </c>
       <c r="O66" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="P66" s="3">
         <v>2300</v>
       </c>
       <c r="Q66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R66" s="3">
         <v>2200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2000</v>
       </c>
       <c r="S66" s="3">
         <v>2000</v>
       </c>
       <c r="T66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-80900</v>
+        <v>-81200</v>
       </c>
       <c r="E72" s="3">
         <v>-80900</v>
       </c>
       <c r="F72" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-81000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-80900</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-80700</v>
       </c>
       <c r="I72" s="3">
         <v>-80700</v>
       </c>
       <c r="J72" s="3">
-        <v>-80600</v>
+        <v>-80700</v>
       </c>
       <c r="K72" s="3">
         <v>-80600</v>
       </c>
       <c r="L72" s="3">
+        <v>-80600</v>
+      </c>
+      <c r="M72" s="3">
         <v>-80300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-80200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-79900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-79700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-79600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-79500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-79400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-79200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-79000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-78800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-78600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-78200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-77900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-83200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-79200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-77100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2200</v>
+        <v>-2500</v>
       </c>
       <c r="E76" s="3">
         <v>-2200</v>
       </c>
       <c r="F76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1800</v>
       </c>
       <c r="K76" s="3">
         <v>-1800</v>
       </c>
       <c r="L76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="U76" s="3">
-        <v>-200</v>
-      </c>
       <c r="V76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
         <v>300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,119 +6006,125 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
@@ -5942,17 +6136,17 @@
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>-200</v>
-      </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
@@ -5960,7 +6154,7 @@
         <v>-200</v>
       </c>
       <c r="U81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="V81" s="3">
         <v>-300</v>
@@ -5969,22 +6163,25 @@
         <v>-300</v>
       </c>
       <c r="X81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y81" s="3">
         <v>5300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,16 +6706,19 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -6514,67 +6730,70 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>-200</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
-      </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-300</v>
       </c>
       <c r="V89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
         <v>-1400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6623,15 +6843,15 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -6641,8 +6861,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>24</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>24</v>
@@ -6653,11 +6873,11 @@
       <c r="R91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>24</v>
@@ -6665,26 +6885,29 @@
       <c r="V91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>24</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
+      <c r="AA91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6915,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA94" s="3">
         <v>100</v>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,22 +7515,25 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -7297,34 +7542,34 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
@@ -7336,25 +7581,28 @@
         <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>-4900</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>4600</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,38 +7681,41 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -7475,42 +7726,45 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>-200</v>
-      </c>
       <c r="U102" s="3">
         <v>-200</v>
       </c>
       <c r="V102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1200</v>
       </c>
     </row>
